--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_4_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>303475.5431129429</v>
+        <v>319233.1861841196</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3013503.893776012</v>
+        <v>2995243.613506391</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20373567.1449482</v>
+        <v>20355670.24425593</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4790382.659738131</v>
+        <v>4813416.780476123</v>
       </c>
     </row>
     <row r="11">
@@ -1145,13 +1145,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="10">
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="12">
@@ -1500,16 +1500,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1737,16 +1737,16 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1977,7 +1977,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="U18" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1999,62 +1999,62 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="R19" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="S19" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="T19" t="n">
         <v>22.44875936050941</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>27.59002526031614</v>
-      </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,17 +2078,17 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>234.288905720311</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -2123,19 +2123,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,25 +2157,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>78.32097487848354</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>47.50776251200644</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2321,19 +2321,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,13 +2369,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,22 +2394,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>39.45698165390586</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>185.9169747726711</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2473,73 +2473,73 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,73 +2555,73 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2640,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>110.3566704350806</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>104.954515658907</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2728,52 +2728,52 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2834,28 +2834,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,16 +2868,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>90.90725545139047</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>84.47684708846108</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3032,10 +3032,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>179.7283339446664</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3044,13 +3044,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3083,16 +3083,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>220.8837963815378</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>90.16983368421225</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>75.58265010978022</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3156,25 +3156,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3196,43 +3196,43 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,13 +3278,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>234.288905720311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3348,19 +3348,19 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>11.76676670332304</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>56.91690033700354</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3442,52 +3442,52 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,31 +3545,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>222.3396163656984</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
     </row>
     <row r="39">
@@ -3582,10 +3582,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>32.89715141506771</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>109.7364879284881</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3670,10 +3670,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>187.9840913941556</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,16 +3749,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>190.9324654410926</v>
-      </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
     </row>
     <row r="42">
@@ -3825,22 +3825,22 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>19.27312481467103</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3870,22 +3870,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="W42" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>195.6353698080211</v>
       </c>
     </row>
     <row r="43">
@@ -3904,49 +3904,49 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="17">
@@ -5516,13 +5516,13 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K17" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L17" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M17" t="n">
-        <v>28.41772601812563</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="N17" t="n">
         <v>55.73185102583861</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="C18" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="D18" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="E18" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F18" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G18" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H18" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="I18" t="n">
         <v>2.207202020825291</v>
@@ -5598,19 +5598,19 @@
         <v>2.207202020825291</v>
       </c>
       <c r="L18" t="n">
-        <v>2.207202020825291</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M18" t="n">
-        <v>2.207202020825291</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N18" t="n">
-        <v>28.41772601812563</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O18" t="n">
-        <v>55.73185102583861</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P18" t="n">
-        <v>83.04597603355158</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q18" t="n">
         <v>110.3601010412646</v>
@@ -5625,19 +5625,19 @@
         <v>26.7539638887914</v>
       </c>
       <c r="U18" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="V18" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="W18" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="X18" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.207202020825291</v>
+        <v>26.7539638887914</v>
       </c>
     </row>
     <row r="19">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C19" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D19" t="n">
         <v>2.207202020825291</v>
@@ -5692,31 +5692,31 @@
         <v>108.4888536788635</v>
       </c>
       <c r="Q19" t="n">
-        <v>108.4888536788635</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R19" t="n">
-        <v>108.4888536788635</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="S19" t="n">
-        <v>108.4888536788635</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="T19" t="n">
-        <v>80.62014129470579</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="U19" t="n">
-        <v>80.62014129470579</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V19" t="n">
-        <v>80.62014129470579</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W19" t="n">
-        <v>80.62014129470579</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U20" t="n">
-        <v>738.7078125165641</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V20" t="n">
-        <v>738.7078125165641</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W20" t="n">
-        <v>738.7078125165641</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>588.0815197256143</v>
+        <v>481.7099827492369</v>
       </c>
       <c r="C21" t="n">
-        <v>588.0815197256143</v>
+        <v>307.2569534681098</v>
       </c>
       <c r="D21" t="n">
-        <v>588.0815197256143</v>
+        <v>158.3225438068586</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>158.3225438068586</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>158.3225438068586</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>158.3225438068586</v>
       </c>
       <c r="H21" t="n">
         <v>110.334904905842</v>
@@ -5832,19 +5832,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y21" t="n">
-        <v>756.2968567456824</v>
+        <v>481.7099827492369</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
         <v>19.28114311021272</v>
@@ -5947,13 +5947,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E23" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6017,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>325.0531560887832</v>
+        <v>481.3994074699755</v>
       </c>
       <c r="C24" t="n">
-        <v>325.0531560887832</v>
+        <v>306.9463781888485</v>
       </c>
       <c r="D24" t="n">
-        <v>325.0531560887832</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6072,10 +6072,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>649.6147444900434</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>649.6147444900434</v>
       </c>
       <c r="V24" t="n">
-        <v>776.2622314978371</v>
+        <v>649.6147444900434</v>
       </c>
       <c r="W24" t="n">
-        <v>532.8134548537371</v>
+        <v>649.6147444900434</v>
       </c>
       <c r="X24" t="n">
-        <v>532.8134548537371</v>
+        <v>649.6147444900434</v>
       </c>
       <c r="Y24" t="n">
-        <v>325.0531560887832</v>
+        <v>649.6147444900434</v>
       </c>
     </row>
     <row r="25">
@@ -6187,10 +6187,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>812.6742080953335</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>812.6742080953335</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>812.6742080953335</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>481.7099827492369</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C27" t="n">
-        <v>481.7099827492369</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D27" t="n">
-        <v>481.7099827492369</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E27" t="n">
-        <v>481.7099827492369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>335.1754247761219</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,13 +6309,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>689.4702815141908</v>
+        <v>629.8188749653011</v>
       </c>
       <c r="W27" t="n">
-        <v>689.4702815141908</v>
+        <v>386.3700983212011</v>
       </c>
       <c r="X27" t="n">
-        <v>689.4702815141908</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y27" t="n">
-        <v>481.7099827492369</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6421,13 +6421,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U29" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6516,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>502.6601697108322</v>
+        <v>111.1066536671728</v>
       </c>
       <c r="C30" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6570,22 +6570,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>878.7270069364331</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>878.7270069364331</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W30" t="n">
-        <v>878.7270069364331</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X30" t="n">
-        <v>670.8755067309003</v>
+        <v>318.8669524321267</v>
       </c>
       <c r="Y30" t="n">
-        <v>670.8755067309003</v>
+        <v>111.1066536671728</v>
       </c>
     </row>
     <row r="31">
@@ -6643,19 +6643,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>487.4018176583718</v>
+        <v>633.9146807345644</v>
       </c>
       <c r="C32" t="n">
-        <v>487.4018176583718</v>
+        <v>633.9146807345644</v>
       </c>
       <c r="D32" t="n">
-        <v>243.9530410142718</v>
+        <v>416.3449861052429</v>
       </c>
       <c r="E32" t="n">
-        <v>243.9530410142718</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="F32" t="n">
-        <v>243.9530410142718</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="G32" t="n">
-        <v>243.9530410142718</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="H32" t="n">
-        <v>243.9530410142718</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I32" t="n">
-        <v>31.35113235729608</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>633.9146807345644</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>633.9146807345644</v>
       </c>
       <c r="W32" t="n">
-        <v>710.516763498309</v>
+        <v>633.9146807345644</v>
       </c>
       <c r="X32" t="n">
-        <v>487.4018176583718</v>
+        <v>633.9146807345644</v>
       </c>
       <c r="Y32" t="n">
-        <v>487.4018176583718</v>
+        <v>633.9146807345644</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20.03527576299844</v>
+        <v>268.0306603177695</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>93.57763103664249</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V33" t="n">
-        <v>562.4161926976942</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W33" t="n">
-        <v>318.9674160535941</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="X33" t="n">
-        <v>111.1159158480613</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="Y33" t="n">
-        <v>111.1159158480613</v>
+        <v>436.2459973378375</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>426.43660147347</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S35" t="n">
-        <v>742.8341567219593</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T35" t="n">
-        <v>742.8341567219593</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U35" t="n">
-        <v>742.8341567219593</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V35" t="n">
-        <v>742.8341567219593</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W35" t="n">
-        <v>742.8341567219593</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X35" t="n">
-        <v>742.8341567219593</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>575.103493803018</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>415.8660387975625</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>269.3314808244475</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>130.6006554070629</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="V36" t="n">
-        <v>678.3417187247995</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="W36" t="n">
-        <v>434.8929420806995</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>586.9891167356675</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>274.7999090013961</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C38" t="n">
-        <v>274.7999090013961</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D38" t="n">
-        <v>274.7999090013961</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E38" t="n">
-        <v>274.7999090013961</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F38" t="n">
-        <v>274.7999090013961</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T38" t="n">
-        <v>742.8341567219593</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U38" t="n">
-        <v>499.3853800778592</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V38" t="n">
-        <v>274.7999090013961</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="W38" t="n">
-        <v>274.7999090013961</v>
+        <v>426.43660147347</v>
       </c>
       <c r="X38" t="n">
-        <v>274.7999090013961</v>
+        <v>208.8669068441485</v>
       </c>
       <c r="Y38" t="n">
-        <v>274.7999090013961</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>279.0604900729671</v>
+        <v>50.46096568844803</v>
       </c>
       <c r="C39" t="n">
-        <v>279.0604900729671</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D39" t="n">
-        <v>130.1260804117159</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E39" t="n">
-        <v>130.1260804117159</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F39" t="n">
-        <v>130.1260804117159</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>644.0062961027915</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>426.43660147347</v>
       </c>
       <c r="X39" t="n">
-        <v>655.0361258579891</v>
+        <v>426.43660147347</v>
       </c>
       <c r="Y39" t="n">
-        <v>447.2758270930352</v>
+        <v>218.6763027085161</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="E40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="F40" t="n">
-        <v>153.8134336004835</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>638.1169902094293</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="C41" t="n">
-        <v>638.1169902094293</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="D41" t="n">
-        <v>638.1169902094293</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="E41" t="n">
-        <v>638.1169902094293</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="F41" t="n">
-        <v>422.536925949487</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="G41" t="n">
-        <v>422.536925949487</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="H41" t="n">
-        <v>229.6758497463631</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I41" t="n">
         <v>17.07394108938743</v>
@@ -7442,10 +7442,10 @@
         <v>853.6970544693717</v>
       </c>
       <c r="U41" t="n">
-        <v>638.1169902094293</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V41" t="n">
-        <v>638.1169902094293</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W41" t="n">
         <v>638.1169902094293</v>
@@ -7454,7 +7454,7 @@
         <v>638.1169902094293</v>
       </c>
       <c r="Y41" t="n">
-        <v>638.1169902094293</v>
+        <v>422.536925949487</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>435.9303955681954</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C42" t="n">
-        <v>435.9303955681954</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D42" t="n">
-        <v>435.9303955681954</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E42" t="n">
-        <v>416.4625927250934</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F42" t="n">
-        <v>269.9280347519783</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G42" t="n">
-        <v>131.1972093345938</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H42" t="n">
-        <v>17.82807374217315</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I42" t="n">
-        <v>17.82807374217315</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J42" t="n">
         <v>17.07394108938743</v>
       </c>
       <c r="K42" t="n">
-        <v>17.07394108938743</v>
+        <v>142.4315011472248</v>
       </c>
       <c r="L42" t="n">
-        <v>17.07394108938743</v>
+        <v>353.7215221283943</v>
       </c>
       <c r="M42" t="n">
-        <v>228.3639620705569</v>
+        <v>565.0115431095638</v>
       </c>
       <c r="N42" t="n">
-        <v>439.6539830517264</v>
+        <v>671.0535768560208</v>
       </c>
       <c r="O42" t="n">
-        <v>650.9440040328959</v>
+        <v>671.0535768560208</v>
       </c>
       <c r="P42" t="n">
-        <v>833.5874816462467</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q42" t="n">
         <v>853.6970544693717</v>
@@ -7518,22 +7518,22 @@
         <v>853.6970544693717</v>
       </c>
       <c r="T42" t="n">
-        <v>651.5104598281378</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U42" t="n">
-        <v>651.5104598281378</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V42" t="n">
-        <v>651.5104598281378</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="W42" t="n">
-        <v>435.9303955681954</v>
+        <v>422.536925949487</v>
       </c>
       <c r="X42" t="n">
-        <v>435.9303955681954</v>
+        <v>214.6854257439542</v>
       </c>
       <c r="Y42" t="n">
-        <v>435.9303955681954</v>
+        <v>17.07394108938743</v>
       </c>
     </row>
     <row r="43">
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E43" t="n">
         <v>17.07394108938743</v>
@@ -7594,25 +7594,25 @@
         <v>151.6062315796582</v>
       </c>
       <c r="S43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="T43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="U43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="V43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="W43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="X43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="Y43" t="n">
-        <v>151.6062315796582</v>
+        <v>17.07394108938743</v>
       </c>
     </row>
     <row r="44">
@@ -8459,16 +8459,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8550,7 +8550,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8690,7 +8690,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L11" t="n">
         <v>235.7664149699872</v>
@@ -8699,13 +8699,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>254.6833393357264</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,13 +8769,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8787,7 +8787,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,16 +8851,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
         <v>135.0065633140411</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L14" t="n">
         <v>235.7664149699872</v>
@@ -8936,13 +8936,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>255.8181236693092</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -9015,13 +9015,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9088,16 +9088,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
         <v>135.0065633140411</v>
@@ -9164,16 +9164,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L17" t="n">
-        <v>262.2416917349371</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>257.0030888569071</v>
+        <v>255.8883403615408</v>
       </c>
       <c r="O17" t="n">
         <v>257.6882366820029</v>
@@ -9246,22 +9246,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>168.6093106869682</v>
       </c>
       <c r="N18" t="n">
-        <v>157.8169888482831</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O18" t="n">
         <v>170.1862697047606</v>
       </c>
       <c r="P18" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>167.5717993463377</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9720,13 +9720,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9957,16 +9957,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,7 +10206,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10431,22 +10431,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>183.0115685892478</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O33" t="n">
-        <v>255.9771075721939</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,13 +10586,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10668,22 +10668,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>183.4737791116739</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,16 +10902,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>306.0557124853233</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2485028631349</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>351.9786433972171</v>
       </c>
       <c r="M42" t="n">
         <v>355.5582975393612</v>
       </c>
       <c r="N42" t="n">
-        <v>344.7659757006762</v>
+        <v>238.4548774837949</v>
       </c>
       <c r="O42" t="n">
-        <v>356.0205080617874</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>160.2944739073598</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23033,13 +23033,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>392.7363850309042</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23084,7 +23084,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23112,13 +23112,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>114.7771646789798</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23166,7 +23166,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>136.6068813128088</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>129.8301837326275</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>67.73888892204195</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>316.9084496315363</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23312,7 +23312,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="12">
@@ -23388,16 +23388,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>177.5983762105908</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23458,16 +23458,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>205.3792369440507</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23495,13 +23495,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>339.6526005763767</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>359.3640175880309</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23543,7 +23543,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23625,16 +23625,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>177.5983762105908</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23695,16 +23695,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>205.3792369440507</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23829,7 +23829,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>65.09533860212863</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23865,7 +23865,7 @@
         <v>172.5747034345055</v>
       </c>
       <c r="U18" t="n">
-        <v>201.6400878316884</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.2419549216212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>126.1667136577029</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23932,16 +23932,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>149.7033661168533</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T19" t="n">
-        <v>200.3555641679654</v>
+        <v>205.4968300677721</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23953,7 +23953,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>198.119630128721</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,16 +23966,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>130.9839860506966</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24011,19 +24011,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24032,10 +24032,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>139.5272757214993</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,25 +24045,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>79.3241055769174</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>64.72768172449003</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24093,10 +24093,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24209,19 +24209,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24257,13 +24257,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,22 +24282,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>160.7077470409157</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>46.88361237675414</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,16 +24443,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>302.8566240687152</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E26" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24488,7 +24488,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24528,22 +24528,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>26.98684672812999</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>127.8460714905183</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24616,7 +24616,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,7 +24689,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24722,28 +24722,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,16 +24756,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>81.80124353692527</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24780,7 +24780,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24810,13 +24810,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>141.4645349925137</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24825,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24883,7 +24883,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24920,10 +24920,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>139.2890439376547</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>202.2020361275954</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24932,13 +24932,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>124.0808044327389</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24971,16 +24971,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>35.95165522480826</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>148.8473042969312</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,13 +24993,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>76.36334996565509</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>71.86241545485854</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25017,7 +25017,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25044,25 +25044,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>36.30098547789137</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25084,7 +25084,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25151,13 +25151,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>139.2890439376547</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,13 +25166,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>20.75685641119472</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,13 +25196,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>151.9490329357426</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25236,19 +25236,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>135.6782988613157</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25278,28 +25278,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>175.8836868124217</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25330,7 +25330,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25403,7 +25403,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25412,7 +25412,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,31 +25433,31 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>105.4126421044365</v>
+        <v>112.3582607871067</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>133.8469710343848</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>154.3371029954408</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>196.5189054968424</v>
       </c>
     </row>
     <row r="39">
@@ -25470,10 +25470,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>139.811347573248</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25482,7 +25482,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>27.60702923472253</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25524,16 +25524,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>36.30098547789137</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25558,10 +25558,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>194.7497502693249</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,16 +25637,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>193.4517821243685</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>148.5423366746745</v>
+        <v>126.0505384984242</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25682,19 +25682,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>37.92138929049358</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>135.8167051000701</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>172.8136750387107</v>
       </c>
     </row>
     <row r="42">
@@ -25713,22 +25713,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>138.3719556407299</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25758,22 +25758,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>19.37632353208235</v>
       </c>
       <c r="W42" t="n">
         <v>38.27071954357669</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>10.04732596928329</v>
       </c>
     </row>
     <row r="43">
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25834,7 +25834,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>327897.5868709115</v>
+        <v>350064.5328762545</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>327897.5868709115</v>
+        <v>350064.5328762545</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>327897.5868709115</v>
+        <v>350064.5328762545</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351700.8745024338</v>
+        <v>351700.874502434</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>507028.2310008513</v>
+        <v>507028.2310008515</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>507028.2310008513</v>
+        <v>488505.1665306335</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>507028.2310008513</v>
+        <v>488505.1665306334</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>507028.2310008513</v>
+        <v>488505.1665306334</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>487081.0800200352</v>
+        <v>487081.080020035</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69879.81359544014</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="C2" t="n">
-        <v>69879.81359544014</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="D2" t="n">
-        <v>69879.81359544014</v>
+        <v>74597.63547237261</v>
       </c>
       <c r="E2" t="n">
-        <v>69879.81359544014</v>
+        <v>74597.63547237263</v>
       </c>
       <c r="F2" t="n">
-        <v>69879.81359544017</v>
+        <v>74597.63547237263</v>
       </c>
       <c r="G2" t="n">
         <v>74945.90033124233</v>
@@ -26338,22 +26338,22 @@
         <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="L2" t="n">
-        <v>108004.4371453661</v>
+        <v>104062.147631765</v>
       </c>
       <c r="M2" t="n">
-        <v>108004.4371453661</v>
+        <v>104062.147631765</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.4371453661</v>
+        <v>104062.1476317649</v>
       </c>
       <c r="O2" t="n">
         <v>103759.0573236673</v>
       </c>
       <c r="P2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544014</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7562.01207347375</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
         <v>57583.78714233168</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23035.7779262594</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="C4" t="n">
-        <v>23035.7779262594</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="D4" t="n">
-        <v>23035.7779262594</v>
+        <v>23004.80940248714</v>
       </c>
       <c r="E4" t="n">
-        <v>23035.7779262594</v>
+        <v>23004.80940248713</v>
       </c>
       <c r="F4" t="n">
-        <v>23035.7779262594</v>
+        <v>23004.80940248714</v>
       </c>
       <c r="G4" t="n">
-        <v>24763.57099960299</v>
+        <v>23115.78358306613</v>
       </c>
       <c r="H4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
-        <v>36038.21233542147</v>
+        <v>32393.64094770881</v>
       </c>
       <c r="M4" t="n">
-        <v>36038.21233542147</v>
+        <v>32393.64094770881</v>
       </c>
       <c r="N4" t="n">
-        <v>36038.21233542147</v>
+        <v>32393.64094770881</v>
       </c>
       <c r="O4" t="n">
-        <v>34590.32203425346</v>
+        <v>32297.06158368185</v>
       </c>
       <c r="P4" t="n">
-        <v>23035.7779262594</v>
+        <v>21501.48110628928</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="G5" t="n">
         <v>1677.473535827221</v>
@@ -26497,13 +26497,13 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="N5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="O5" t="n">
         <v>12976.19522793445</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13216.43566918074</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
-        <v>13216.43566918074</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>13216.43566918074</v>
+        <v>8449.081311463757</v>
       </c>
       <c r="E6" t="n">
-        <v>46844.03566918074</v>
+        <v>50035.11236525194</v>
       </c>
       <c r="F6" t="n">
-        <v>46844.03566918077</v>
+        <v>50035.11236525193</v>
       </c>
       <c r="G6" t="n">
-        <v>40942.84372233837</v>
+        <v>49612.76865095562</v>
       </c>
       <c r="H6" t="n">
-        <v>-271.2310961487965</v>
+        <v>2117.134455014981</v>
       </c>
       <c r="I6" t="n">
-        <v>57312.55604618289</v>
+        <v>59700.92159734665</v>
       </c>
       <c r="J6" t="n">
-        <v>57312.5560461829</v>
+        <v>59700.92159734662</v>
       </c>
       <c r="K6" t="n">
-        <v>57312.5560461829</v>
+        <v>59700.92159734669</v>
       </c>
       <c r="L6" t="n">
-        <v>57312.55604618292</v>
+        <v>58572.55162492802</v>
       </c>
       <c r="M6" t="n">
-        <v>57312.55604618294</v>
+        <v>58572.55162492802</v>
       </c>
       <c r="N6" t="n">
-        <v>57312.55604618293</v>
+        <v>58572.55162492799</v>
       </c>
       <c r="O6" t="n">
-        <v>56192.54006147937</v>
+        <v>58485.80051205098</v>
       </c>
       <c r="P6" t="n">
-        <v>46844.03566918077</v>
+        <v>48378.33248915085</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26793,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
         <v>27.59002526031614</v>
@@ -26817,13 +26817,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O4" t="n">
         <v>213.4242636173429</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
         <v>213.4242636173429</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
         <v>213.4242636173429</v>
@@ -35179,16 +35179,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,13 +35419,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35656,13 +35656,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,13 +35735,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35808,16 +35808,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35884,16 +35884,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>26.47527676494984</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>27.59002526031614</v>
       </c>
       <c r="O17" t="n">
         <v>27.59002526031614</v>
@@ -35966,22 +35966,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="N18" t="n">
-        <v>26.47527676494984</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O18" t="n">
         <v>27.59002526031614</v>
       </c>
       <c r="P18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36440,13 +36440,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,16 +36677,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36838,7 +36838,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,7 +36926,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37069,13 +37069,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L32" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37151,22 +37151,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>40.87753466722953</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O33" t="n">
-        <v>113.3808631277494</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L35" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37388,22 +37388,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>40.87753466722948</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,16 +37622,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>167.5013327054491</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798016</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="M42" t="n">
         <v>213.4242636173429</v>
       </c>
       <c r="N42" t="n">
-        <v>213.4242636173429</v>
+        <v>107.1131654004615</v>
       </c>
       <c r="O42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.31269982133833</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
